--- a/Harris Data/category_aggregate/expo_category.xlsx
+++ b/Harris Data/category_aggregate/expo_category.xlsx
@@ -22,7 +22,7 @@
     <t>avg_early</t>
   </si>
   <si>
-    <t>num_orders_expo</t>
+    <t>num_transactions_expo</t>
   </si>
   <si>
     <t>%_late</t>
